--- a/template/nexial-testplan.xlsx
+++ b/template/nexial-testplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8E56A6-CABD-384F-BC92-49F0D82273E1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA9946F-51A7-D947-BE07-81DECCD29669}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="25160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,6 +468,18 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -488,27 +500,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -871,7 +871,7 @@
   <dimension ref="A1:N700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,13 +891,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
@@ -907,17 +907,17 @@
       <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="36"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="31"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="147" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="41"/>
@@ -927,13 +927,13 @@
       <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
       <c r="I2" s="16"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>26</v>
       </c>
@@ -1023,7 +1023,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1071,7 +1071,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -1087,7 +1087,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1103,7 +1103,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1119,7 +1119,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1135,7 +1135,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1151,7 +1151,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1167,7 +1167,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1183,7 +1183,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1199,7 +1199,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="6"/>
       <c r="C16" s="5"/>
@@ -1215,7 +1215,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="6"/>
       <c r="C17" s="5"/>
@@ -1231,7 +1231,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -1247,7 +1247,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="6"/>
       <c r="C19" s="5"/>
@@ -1263,7 +1263,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -1279,7 +1279,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
@@ -1295,7 +1295,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -1311,7 +1311,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="6"/>
       <c r="C23" s="5"/>
@@ -1327,7 +1327,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -1343,7 +1343,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="6"/>
       <c r="C25" s="5"/>
@@ -1359,7 +1359,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -1375,7 +1375,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="6"/>
       <c r="C27" s="5"/>
@@ -1391,7 +1391,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="14"/>
       <c r="C28" s="5"/>
@@ -1407,7 +1407,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="6"/>
       <c r="C29" s="5"/>
@@ -1423,7 +1423,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -1439,7 +1439,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="6"/>
       <c r="C31" s="5"/>
@@ -1455,7 +1455,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="6"/>
       <c r="C32" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="6"/>
       <c r="C33" s="5"/>
@@ -1487,7 +1487,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="6"/>
       <c r="C34" s="5"/>
@@ -1503,7 +1503,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="6"/>
       <c r="C35" s="5"/>
@@ -1519,7 +1519,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="26"/>
       <c r="B36" s="6"/>
       <c r="C36" s="5"/>
@@ -1535,7 +1535,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="6"/>
       <c r="C37" s="5"/>
@@ -1551,7 +1551,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="6"/>
       <c r="C38" s="5"/>
@@ -1567,7 +1567,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="6"/>
       <c r="C39" s="5"/>
@@ -1583,7 +1583,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
       <c r="B40" s="6"/>
       <c r="C40" s="5"/>
@@ -1599,7 +1599,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="26"/>
       <c r="B41" s="6"/>
       <c r="C41" s="5"/>
@@ -1615,7 +1615,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="26"/>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -1631,7 +1631,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="26"/>
       <c r="B43" s="6"/>
       <c r="C43" s="5"/>
@@ -1647,7 +1647,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="26"/>
       <c r="B44" s="6"/>
       <c r="C44" s="5"/>
@@ -1663,7 +1663,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="26"/>
       <c r="B45" s="6"/>
       <c r="C45" s="5"/>
@@ -1679,7 +1679,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="26"/>
       <c r="B46" s="6"/>
       <c r="C46" s="5"/>
@@ -1695,7 +1695,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="26"/>
       <c r="B47" s="6"/>
       <c r="C47" s="5"/>
@@ -1711,7 +1711,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="6"/>
       <c r="C48" s="5"/>
@@ -1727,7 +1727,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="6"/>
       <c r="C49" s="5"/>
@@ -1743,7 +1743,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="26"/>
       <c r="B50" s="6"/>
       <c r="C50" s="5"/>
@@ -1759,7 +1759,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="26"/>
       <c r="B51" s="6"/>
       <c r="C51" s="5"/>
@@ -1775,7 +1775,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="26"/>
       <c r="B52" s="6"/>
       <c r="C52" s="5"/>
@@ -1791,7 +1791,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="26"/>
       <c r="B53" s="6"/>
       <c r="C53" s="5"/>
@@ -1807,7 +1807,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="26"/>
       <c r="B54" s="6"/>
       <c r="C54" s="5"/>
@@ -1823,7 +1823,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="26"/>
       <c r="B55" s="6"/>
       <c r="C55" s="5"/>
@@ -1839,7 +1839,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="26"/>
       <c r="B56" s="6"/>
       <c r="C56" s="5"/>
@@ -1855,7 +1855,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="26"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
@@ -1871,7 +1871,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="26"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
@@ -1887,7 +1887,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="26"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
@@ -1903,7 +1903,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="26"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
@@ -1919,7 +1919,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="26"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
@@ -1935,7 +1935,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="26"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
@@ -1951,7 +1951,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="26"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
@@ -1967,7 +1967,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="26"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5"/>
@@ -1983,7 +1983,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="26"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
@@ -1999,7 +1999,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="26"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
@@ -2015,7 +2015,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="26"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
@@ -2031,7 +2031,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="26"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
@@ -2047,7 +2047,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="26"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
@@ -2063,7 +2063,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="26"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
@@ -2079,7 +2079,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
@@ -2095,7 +2095,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
@@ -2111,7 +2111,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
@@ -2127,7 +2127,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
@@ -2143,7 +2143,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
@@ -2159,7 +2159,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
@@ -2175,7 +2175,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="26"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
@@ -2191,7 +2191,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="26"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
@@ -2207,7 +2207,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="26"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
@@ -2223,7 +2223,7 @@
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="26"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
@@ -2239,7 +2239,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="26"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
@@ -2255,7 +2255,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="26"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
@@ -2271,7 +2271,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="26"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
@@ -2287,7 +2287,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="26"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
@@ -2303,7 +2303,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="26"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
@@ -2319,7 +2319,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="26"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
@@ -2335,7 +2335,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="26"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
@@ -2351,7 +2351,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="26"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
@@ -2367,7 +2367,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="26"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
@@ -2383,7 +2383,7 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="26"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
@@ -2399,7 +2399,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="26"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
@@ -2415,7 +2415,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="26"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
@@ -2431,7 +2431,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="26"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
@@ -2447,7 +2447,7 @@
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
     </row>
-    <row r="94" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="26"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
@@ -2463,7 +2463,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="26"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
@@ -2479,7 +2479,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="26"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
@@ -2495,7 +2495,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="26"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
@@ -2511,7 +2511,7 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="26"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
@@ -2527,7 +2527,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="26"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
@@ -2543,7 +2543,7 @@
       <c r="M99" s="1"/>
       <c r="N99" s="1"/>
     </row>
-    <row r="100" spans="1:14" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" s="17" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="26"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
